--- a/template/invoiceTem3.xlsx
+++ b/template/invoiceTem3.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\git\highablePrint\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDB3333-8E83-4ED6-A177-F9173D2CCFA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBB0535-63B7-8E4B-9D0B-F17E540511C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27810" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="27820" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HA0774 EUR INV" sheetId="2" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'HA0774 EUR INV'!$A$1:$J$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">sheet1!$A$1:$J$51</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -522,6 +522,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -541,8 +543,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -859,23 +859,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="5.75" customWidth="1"/>
-    <col min="3" max="3" width="6.875" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="2.625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" hidden="1" customWidth="1"/>
     <col min="12" max="13" width="9" customWidth="1"/>
     <col min="14" max="26" width="8" customWidth="1"/>
   </cols>
@@ -909,18 +909,18 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -939,21 +939,21 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -969,18 +969,18 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -999,18 +999,18 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1029,18 +1029,18 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1092,10 +1092,10 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="60"/>
+      <c r="G8" s="62"/>
       <c r="H8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1160,10 +1160,8 @@
       <c r="I10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="62">
-        <v>42965</v>
-      </c>
-      <c r="K10" s="63"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1304,13 +1302,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
       <c r="I15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1775,7 +1773,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="37"/>
-      <c r="C31" s="69" t="s">
+      <c r="C31" s="60" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="25"/>
@@ -1834,7 +1832,7 @@
       <c r="A33" s="36"/>
       <c r="B33" s="37"/>
       <c r="C33" s="23"/>
-      <c r="D33" s="68"/>
+      <c r="D33" s="59"/>
       <c r="E33" s="38"/>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
@@ -1862,7 +1860,7 @@
       <c r="A34" s="36"/>
       <c r="B34" s="37"/>
       <c r="C34" s="23"/>
-      <c r="D34" s="68"/>
+      <c r="D34" s="59"/>
       <c r="E34" s="38"/>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
@@ -1890,7 +1888,7 @@
       <c r="A35" s="36"/>
       <c r="B35" s="37"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="68" t="s">
+      <c r="D35" s="59" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="38"/>

--- a/template/invoiceTem3.xlsx
+++ b/template/invoiceTem3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBB0535-63B7-8E4B-9D0B-F17E540511C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B46F54-9FA5-2A48-99E5-33D78A98FD14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="460" windowWidth="27820" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,25 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
-  <si>
-    <t>IRONDALE FASHION INTERNATIONAL LIMITED</t>
-  </si>
-  <si>
-    <t>UNIT 11,BLK B 10/F, HOI LUEN IND CTR,</t>
-  </si>
-  <si>
-    <t>55 HOI YUEN RD, KWUN TONG,</t>
-  </si>
-  <si>
-    <t>KOWLOON, HONG KONG</t>
-  </si>
-  <si>
-    <t>TEL: 23275217  FAX 23500954</t>
-  </si>
-  <si>
-    <t>INVOICE NO.329/17</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -89,15 +71,15 @@
   </si>
   <si>
     <t>package</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>***</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>fei</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <t>INVOICE NO.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -108,7 +90,7 @@
     <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yy"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -176,35 +158,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arimo"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arimo"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arimo"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arimo"/>
-    </font>
-    <font>
-      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -219,14 +172,34 @@
     <font>
       <b/>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arimo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Arimo"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Arimo"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arimo"/>
     </font>
   </fonts>
   <fills count="2">
@@ -418,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -442,88 +415,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -541,6 +468,49 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -860,7 +830,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -909,18 +879,16 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A2" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -939,21 +907,19 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -969,18 +935,16 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -999,18 +963,16 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1029,18 +991,16 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1092,12 +1052,12 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="63" t="s">
-        <v>5</v>
+      <c r="F8" s="35" t="s">
+        <v>17</v>
       </c>
-      <c r="G8" s="62"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1121,7 +1081,7 @@
     <row r="9" spans="1:26">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="1"/>
@@ -1158,10 +1118,10 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
-      <c r="J10" s="64"/>
-      <c r="K10" s="65"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="37"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1181,7 +1141,7 @@
     <row r="11" spans="1:26">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="1"/>
@@ -1219,7 +1179,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1249,7 +1209,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1299,21 +1259,21 @@
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="66" t="s">
-        <v>10</v>
+      <c r="D15" s="38" t="s">
+        <v>4</v>
       </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="68"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
@@ -1333,18 +1293,18 @@
       <c r="Z15" s="12"/>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="51" t="s">
-        <v>13</v>
+      <c r="A16" s="42"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45" t="s">
+        <v>7</v>
       </c>
-      <c r="J16" s="26"/>
+      <c r="J16" s="46"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
@@ -1363,16 +1323,16 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
@@ -1391,16 +1351,16 @@
       <c r="Z17" s="12"/>
     </row>
     <row r="18" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
@@ -1419,25 +1379,25 @@
       <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A19" s="32" t="s">
-        <v>6</v>
+      <c r="A19" s="52" t="s">
+        <v>0</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>6</v>
+      <c r="B19" s="53" t="s">
+        <v>0</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>6</v>
+      <c r="C19" s="54" t="s">
+        <v>0</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19" t="s">
-        <v>6</v>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="56" t="s">
+        <v>0</v>
       </c>
-      <c r="J19" s="54" t="s">
-        <v>6</v>
+      <c r="J19" s="57" t="s">
+        <v>0</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1457,16 +1417,16 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="54"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="57"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1485,16 +1445,16 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="54"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="57"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1513,16 +1473,16 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="54"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="57"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1541,16 +1501,16 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="54"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="57"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1569,16 +1529,16 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="54"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="57"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1597,16 +1557,16 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="55"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="57"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1625,18 +1585,18 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38" t="s">
-        <v>6</v>
+      <c r="A26" s="60"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59" t="s">
+        <v>0</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="57"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="63"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
@@ -1655,18 +1615,18 @@
       <c r="Z26" s="12"/>
     </row>
     <row r="27" spans="1:26" ht="12" customHeight="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="38" t="s">
-        <v>6</v>
+      <c r="A27" s="60"/>
+      <c r="B27" s="59" t="s">
+        <v>0</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
@@ -1684,17 +1644,17 @@
       <c r="Y27" s="12"/>
       <c r="Z27" s="12"/>
     </row>
-    <row r="28" spans="1:26" s="58" customFormat="1" ht="12" customHeight="1">
-      <c r="A28" s="36"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
+    <row r="28" spans="1:26" s="31" customFormat="1" ht="12" customHeight="1">
+      <c r="A28" s="60"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
@@ -1712,17 +1672,17 @@
       <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
     </row>
-    <row r="29" spans="1:26" s="58" customFormat="1" ht="12" customHeight="1">
-      <c r="A29" s="36"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
+    <row r="29" spans="1:26" s="31" customFormat="1" ht="12" customHeight="1">
+      <c r="A29" s="60"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
@@ -1741,16 +1701,16 @@
       <c r="Z29" s="12"/>
     </row>
     <row r="30" spans="1:26" ht="12" customHeight="1">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
@@ -1769,20 +1729,20 @@
       <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="1:26" ht="12" customHeight="1">
-      <c r="A31" s="36" t="s">
-        <v>22</v>
+      <c r="A31" s="60" t="s">
+        <v>16</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="60" t="s">
-        <v>21</v>
+      <c r="B31" s="48"/>
+      <c r="C31" s="32" t="s">
+        <v>15</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
@@ -1800,17 +1760,17 @@
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
     </row>
-    <row r="32" spans="1:26" s="58" customFormat="1" ht="12" customHeight="1">
-      <c r="A32" s="36"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
+    <row r="32" spans="1:26" s="31" customFormat="1" ht="12" customHeight="1">
+      <c r="A32" s="60"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
@@ -1828,17 +1788,17 @@
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
     </row>
-    <row r="33" spans="1:26" s="58" customFormat="1" ht="12" customHeight="1">
-      <c r="A33" s="36"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
+    <row r="33" spans="1:26" s="31" customFormat="1" ht="12" customHeight="1">
+      <c r="A33" s="60"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
@@ -1856,17 +1816,17 @@
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
     </row>
-    <row r="34" spans="1:26" s="58" customFormat="1" ht="12" customHeight="1">
-      <c r="A34" s="36"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
+    <row r="34" spans="1:26" s="31" customFormat="1" ht="12" customHeight="1">
+      <c r="A34" s="60"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
@@ -1884,19 +1844,17 @@
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
     </row>
-    <row r="35" spans="1:26" s="58" customFormat="1" ht="12" customHeight="1">
-      <c r="A35" s="36"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="38"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
+    <row r="35" spans="1:26" s="31" customFormat="1" ht="12" customHeight="1">
+      <c r="A35" s="60"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
@@ -1915,18 +1873,18 @@
       <c r="Z35" s="12"/>
     </row>
     <row r="36" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A36" s="32"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="42" t="s">
-        <v>14</v>
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="22" t="s">
+        <v>8</v>
       </c>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="54"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="29"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -1945,18 +1903,18 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A37" s="32"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="42" t="s">
-        <v>15</v>
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="22" t="s">
+        <v>9</v>
       </c>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="54"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="29"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -1975,18 +1933,18 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A38" s="32"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="42" t="s">
-        <v>16</v>
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="22" t="s">
+        <v>10</v>
       </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="54"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="29"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2005,18 +1963,18 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A39" s="32"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="49" t="s">
-        <v>17</v>
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="26" t="s">
+        <v>11</v>
       </c>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="54"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="29"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -2035,18 +1993,18 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A40" s="32"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="42" t="s">
-        <v>18</v>
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="22" t="s">
+        <v>12</v>
       </c>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="54"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="29"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -2065,18 +2023,18 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A41" s="32"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="49" t="s">
-        <v>19</v>
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="26" t="s">
+        <v>13</v>
       </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="54"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="29"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -2095,16 +2053,16 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A42" s="32"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="54"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="29"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -2123,16 +2081,16 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A43" s="32"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="54"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="29"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -2151,16 +2109,16 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A44" s="32"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="54"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="29"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -2179,16 +2137,16 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A45" s="32"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="54"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="29"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2207,16 +2165,16 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A46" s="32"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="54"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="29"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -2235,16 +2193,16 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A47" s="32"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="54"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="29"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -2263,16 +2221,16 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A48" s="32"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="54"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="29"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -2291,16 +2249,16 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A49" s="32"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="54"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="29"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -2319,16 +2277,16 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A50" s="32"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="54"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="29"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -2347,18 +2305,18 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A51" s="39"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40" t="s">
-        <v>20</v>
+      <c r="A51" s="19"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20" t="s">
+        <v>14</v>
       </c>
-      <c r="G51" s="40"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="56"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="30"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -2385,8 +2343,8 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="20"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="15"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -28904,7 +28862,7 @@
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A5:J5"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
